--- a/Materia_2-PowerBi/IP - EX 50 - Tabela dinamica I (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 50 - Tabela dinamica I (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC636C2B-BDD1-43E8-9E91-4D0D0AF554F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB5EFDF-C8DE-457B-B480-58B665DB6822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="EXERCÍCIOS" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="40">
   <si>
     <t>CONCEITO</t>
   </si>
@@ -134,6 +137,24 @@
   </si>
   <si>
     <t>Tabela Dinâmica</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Antônio Total</t>
+  </si>
+  <si>
+    <t>Paulo Total</t>
+  </si>
+  <si>
+    <t>Pedro Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -465,7 +486,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -552,6 +573,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -559,7 +589,17 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{68AA0FC4-F257-4747-A196-A35E428BCDFE}"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -967,6 +1007,223 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lorenzo Bianchi" refreshedDate="45727.870865625002" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{62258BE9-EA9F-4744-89F5-69087366F545}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B10:E16" sheet="EXPLICAÇÃO"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Pedro"/>
+        <s v="Paulo"/>
+        <s v="Antônio"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Produto" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Impressoras"/>
+        <s v="Scanners"/>
+        <s v="Calculadoras"/>
+        <s v="Desktops"/>
+        <s v="Notebooks"/>
+        <s v="Multifuncionais"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Quantidade" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="15" count="6">
+        <n v="15"/>
+        <n v="8"/>
+        <n v="10"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Valor" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="21000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="18000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="21000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="16000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211CEE9D-C704-4160-8C52-5259721CBF18}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="I10:L20" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Quantidade " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="TOTAL" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1256,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Q18"/>
+  <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,13 +1719,21 @@
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="str">
         <f>CONTEÚDO!B2</f>
         <v>Tabela Dinâmica</v>
@@ -1486,10 +1751,9 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30"/>
-    </row>
-    <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -1504,10 +1768,9 @@
       <c r="M3" s="32"/>
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -1522,10 +1785,9 @@
       <c r="M4" s="32"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
-    </row>
-    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
@@ -1540,10 +1802,9 @@
       <c r="M5" s="32"/>
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33"/>
-    </row>
-    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -1558,10 +1819,9 @@
       <c r="M6" s="35"/>
       <c r="N6" s="35"/>
       <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>0</v>
       </c>
@@ -1569,8 +1829,8 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>1</v>
       </c>
@@ -1586,8 +1846,20 @@
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1600,8 +1872,20 @@
       <c r="E11" s="4">
         <v>15000</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="42">
+        <v>10</v>
+      </c>
+      <c r="L11" s="41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1614,8 +1898,17 @@
       <c r="E12" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="42">
+        <v>7</v>
+      </c>
+      <c r="L12" s="41">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1628,8 +1921,17 @@
       <c r="E13" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="42">
+        <v>17</v>
+      </c>
+      <c r="L13" s="41">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1642,8 +1944,20 @@
       <c r="E14" s="4">
         <v>18000</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="42">
+        <v>6</v>
+      </c>
+      <c r="L14" s="41">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1656,8 +1970,17 @@
       <c r="E15" s="4">
         <v>21000</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="42">
+        <v>8</v>
+      </c>
+      <c r="L15" s="41">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1670,21 +1993,75 @@
       <c r="E16" s="4">
         <v>16000</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="42">
+        <v>14</v>
+      </c>
+      <c r="L16" s="41">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="42">
+        <v>15</v>
+      </c>
+      <c r="L17" s="41">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="42">
+        <v>11</v>
+      </c>
+      <c r="L18" s="41">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="42">
+        <v>26</v>
+      </c>
+      <c r="L19" s="41">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="42">
+        <v>57</v>
+      </c>
+      <c r="L20" s="41">
+        <v>100000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:Q6"/>
+    <mergeCell ref="B2:P6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Materia_2-PowerBi/IP - EX 50 - Tabela dinamica I (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 50 - Tabela dinamica I (Anexo).xlsx
@@ -2,24 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB5EFDF-C8DE-457B-B480-58B665DB6822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5AF39C-6E71-44C7-A809-6C8AC02E1E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
     <sheet name="EXPLICAÇÃO" sheetId="4" r:id="rId2"/>
     <sheet name="EXERCÍCIOS" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EXERCÍCIOS!$B$19:$G$141</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="15" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="52">
   <si>
     <t>CONCEITO</t>
   </si>
@@ -139,6 +143,9 @@
     <t>Tabela Dinâmica</t>
   </si>
   <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
     <t>Total Geral</t>
   </si>
   <si>
@@ -155,6 +162,39 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Soma de Comissão</t>
+  </si>
+  <si>
+    <t>(Tudo)</t>
+  </si>
+  <si>
+    <t>Soma de Unidades</t>
+  </si>
+  <si>
+    <t>Soma de Vendas</t>
+  </si>
+  <si>
+    <t>Trim1</t>
+  </si>
+  <si>
+    <t>Trim2</t>
+  </si>
+  <si>
+    <t>Trim3</t>
+  </si>
+  <si>
+    <t>Comissão</t>
+  </si>
+  <si>
+    <t>Porcentagem</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Meta</t>
   </si>
 </sst>
 </file>
@@ -296,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -479,6 +519,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -486,7 +546,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -574,6 +634,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -582,6 +645,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -589,7 +663,28 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{68AA0FC4-F257-4747-A196-A35E428BCDFE}"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -1052,6 +1147,582 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lorenzo Bianchi" refreshedDate="45727.877719444441" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="122" xr:uid="{B5019E26-496B-4E62-93E0-CE3C0BB3DB02}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B19:F141" sheet="EXERCÍCIOS"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Data" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2003-02-03T00:00:00" maxDate="2003-07-23T00:00:00" count="122">
+        <d v="2003-02-03T00:00:00"/>
+        <d v="2003-02-04T00:00:00"/>
+        <d v="2003-02-05T00:00:00"/>
+        <d v="2003-02-06T00:00:00"/>
+        <d v="2003-02-07T00:00:00"/>
+        <d v="2003-02-10T00:00:00"/>
+        <d v="2003-02-11T00:00:00"/>
+        <d v="2003-02-12T00:00:00"/>
+        <d v="2003-02-13T00:00:00"/>
+        <d v="2003-02-14T00:00:00"/>
+        <d v="2003-02-17T00:00:00"/>
+        <d v="2003-02-18T00:00:00"/>
+        <d v="2003-02-19T00:00:00"/>
+        <d v="2003-02-20T00:00:00"/>
+        <d v="2003-02-21T00:00:00"/>
+        <d v="2003-02-24T00:00:00"/>
+        <d v="2003-02-25T00:00:00"/>
+        <d v="2003-02-26T00:00:00"/>
+        <d v="2003-02-27T00:00:00"/>
+        <d v="2003-02-28T00:00:00"/>
+        <d v="2003-03-03T00:00:00"/>
+        <d v="2003-03-04T00:00:00"/>
+        <d v="2003-03-05T00:00:00"/>
+        <d v="2003-03-06T00:00:00"/>
+        <d v="2003-03-07T00:00:00"/>
+        <d v="2003-03-10T00:00:00"/>
+        <d v="2003-03-11T00:00:00"/>
+        <d v="2003-03-12T00:00:00"/>
+        <d v="2003-03-13T00:00:00"/>
+        <d v="2003-03-14T00:00:00"/>
+        <d v="2003-03-17T00:00:00"/>
+        <d v="2003-03-18T00:00:00"/>
+        <d v="2003-03-19T00:00:00"/>
+        <d v="2003-03-20T00:00:00"/>
+        <d v="2003-03-21T00:00:00"/>
+        <d v="2003-03-24T00:00:00"/>
+        <d v="2003-03-25T00:00:00"/>
+        <d v="2003-03-26T00:00:00"/>
+        <d v="2003-03-27T00:00:00"/>
+        <d v="2003-03-28T00:00:00"/>
+        <d v="2003-03-31T00:00:00"/>
+        <d v="2003-04-01T00:00:00"/>
+        <d v="2003-04-02T00:00:00"/>
+        <d v="2003-04-03T00:00:00"/>
+        <d v="2003-04-04T00:00:00"/>
+        <d v="2003-04-07T00:00:00"/>
+        <d v="2003-04-08T00:00:00"/>
+        <d v="2003-04-09T00:00:00"/>
+        <d v="2003-04-10T00:00:00"/>
+        <d v="2003-04-11T00:00:00"/>
+        <d v="2003-04-14T00:00:00"/>
+        <d v="2003-04-15T00:00:00"/>
+        <d v="2003-04-16T00:00:00"/>
+        <d v="2003-04-17T00:00:00"/>
+        <d v="2003-04-18T00:00:00"/>
+        <d v="2003-04-21T00:00:00"/>
+        <d v="2003-04-22T00:00:00"/>
+        <d v="2003-04-23T00:00:00"/>
+        <d v="2003-04-24T00:00:00"/>
+        <d v="2003-04-25T00:00:00"/>
+        <d v="2003-04-28T00:00:00"/>
+        <d v="2003-04-29T00:00:00"/>
+        <d v="2003-04-30T00:00:00"/>
+        <d v="2003-05-05T00:00:00"/>
+        <d v="2003-05-06T00:00:00"/>
+        <d v="2003-05-07T00:00:00"/>
+        <d v="2003-05-08T00:00:00"/>
+        <d v="2003-05-09T00:00:00"/>
+        <d v="2003-05-12T00:00:00"/>
+        <d v="2003-05-13T00:00:00"/>
+        <d v="2003-05-14T00:00:00"/>
+        <d v="2003-05-15T00:00:00"/>
+        <d v="2003-05-16T00:00:00"/>
+        <d v="2003-05-19T00:00:00"/>
+        <d v="2003-05-20T00:00:00"/>
+        <d v="2003-05-21T00:00:00"/>
+        <d v="2003-05-22T00:00:00"/>
+        <d v="2003-05-23T00:00:00"/>
+        <d v="2003-05-26T00:00:00"/>
+        <d v="2003-05-27T00:00:00"/>
+        <d v="2003-05-28T00:00:00"/>
+        <d v="2003-05-29T00:00:00"/>
+        <d v="2003-05-30T00:00:00"/>
+        <d v="2003-06-03T00:00:00"/>
+        <d v="2003-06-04T00:00:00"/>
+        <d v="2003-06-05T00:00:00"/>
+        <d v="2003-06-06T00:00:00"/>
+        <d v="2003-06-07T00:00:00"/>
+        <d v="2003-06-08T00:00:00"/>
+        <d v="2003-06-09T00:00:00"/>
+        <d v="2003-06-10T00:00:00"/>
+        <d v="2003-06-11T00:00:00"/>
+        <d v="2003-06-12T00:00:00"/>
+        <d v="2003-06-13T00:00:00"/>
+        <d v="2003-06-14T00:00:00"/>
+        <d v="2003-06-15T00:00:00"/>
+        <d v="2003-06-16T00:00:00"/>
+        <d v="2003-06-17T00:00:00"/>
+        <d v="2003-06-18T00:00:00"/>
+        <d v="2003-06-19T00:00:00"/>
+        <d v="2003-06-20T00:00:00"/>
+        <d v="2003-06-21T00:00:00"/>
+        <d v="2003-06-22T00:00:00"/>
+        <d v="2003-07-04T00:00:00"/>
+        <d v="2003-07-05T00:00:00"/>
+        <d v="2003-07-06T00:00:00"/>
+        <d v="2003-07-07T00:00:00"/>
+        <d v="2003-07-08T00:00:00"/>
+        <d v="2003-07-09T00:00:00"/>
+        <d v="2003-07-10T00:00:00"/>
+        <d v="2003-07-11T00:00:00"/>
+        <d v="2003-07-12T00:00:00"/>
+        <d v="2003-07-13T00:00:00"/>
+        <d v="2003-07-14T00:00:00"/>
+        <d v="2003-07-15T00:00:00"/>
+        <d v="2003-07-16T00:00:00"/>
+        <d v="2003-07-17T00:00:00"/>
+        <d v="2003-07-18T00:00:00"/>
+        <d v="2003-07-19T00:00:00"/>
+        <d v="2003-07-20T00:00:00"/>
+        <d v="2003-07-21T00:00:00"/>
+        <d v="2003-07-22T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="8"/>
+    </cacheField>
+    <cacheField name="Departamento" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="1"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendas" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1125" maxValue="9854"/>
+    </cacheField>
+    <cacheField name="Unidades" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1369"/>
+    </cacheField>
+    <cacheField name="Mês" numFmtId="165">
+      <sharedItems count="6">
+        <s v="Fevereiro"/>
+        <s v="Março"/>
+        <s v="Abril"/>
+        <s v="Maio"/>
+        <s v="Junho"/>
+        <s v="Julho"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Comissão" numFmtId="0" formula="5%*Vendas" databaseField="0"/>
+    <cacheField name="Dias (Data)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="days" startDate="2003-02-03T00:00:00" endDate="2003-07-23T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;03/02/2003"/>
+          <s v="01/jan"/>
+          <s v="02/jan"/>
+          <s v="03/jan"/>
+          <s v="04/jan"/>
+          <s v="05/jan"/>
+          <s v="06/jan"/>
+          <s v="07/jan"/>
+          <s v="08/jan"/>
+          <s v="09/jan"/>
+          <s v="10/jan"/>
+          <s v="11/jan"/>
+          <s v="12/jan"/>
+          <s v="13/jan"/>
+          <s v="14/jan"/>
+          <s v="15/jan"/>
+          <s v="16/jan"/>
+          <s v="17/jan"/>
+          <s v="18/jan"/>
+          <s v="19/jan"/>
+          <s v="20/jan"/>
+          <s v="21/jan"/>
+          <s v="22/jan"/>
+          <s v="23/jan"/>
+          <s v="24/jan"/>
+          <s v="25/jan"/>
+          <s v="26/jan"/>
+          <s v="27/jan"/>
+          <s v="28/jan"/>
+          <s v="29/jan"/>
+          <s v="30/jan"/>
+          <s v="31/jan"/>
+          <s v="01/fev"/>
+          <s v="02/fev"/>
+          <s v="03/fev"/>
+          <s v="04/fev"/>
+          <s v="05/fev"/>
+          <s v="06/fev"/>
+          <s v="07/fev"/>
+          <s v="08/fev"/>
+          <s v="09/fev"/>
+          <s v="10/fev"/>
+          <s v="11/fev"/>
+          <s v="12/fev"/>
+          <s v="13/fev"/>
+          <s v="14/fev"/>
+          <s v="15/fev"/>
+          <s v="16/fev"/>
+          <s v="17/fev"/>
+          <s v="18/fev"/>
+          <s v="19/fev"/>
+          <s v="20/fev"/>
+          <s v="21/fev"/>
+          <s v="22/fev"/>
+          <s v="23/fev"/>
+          <s v="24/fev"/>
+          <s v="25/fev"/>
+          <s v="26/fev"/>
+          <s v="27/fev"/>
+          <s v="28/fev"/>
+          <s v="29/fev"/>
+          <s v="01/mar"/>
+          <s v="02/mar"/>
+          <s v="03/mar"/>
+          <s v="04/mar"/>
+          <s v="05/mar"/>
+          <s v="06/mar"/>
+          <s v="07/mar"/>
+          <s v="08/mar"/>
+          <s v="09/mar"/>
+          <s v="10/mar"/>
+          <s v="11/mar"/>
+          <s v="12/mar"/>
+          <s v="13/mar"/>
+          <s v="14/mar"/>
+          <s v="15/mar"/>
+          <s v="16/mar"/>
+          <s v="17/mar"/>
+          <s v="18/mar"/>
+          <s v="19/mar"/>
+          <s v="20/mar"/>
+          <s v="21/mar"/>
+          <s v="22/mar"/>
+          <s v="23/mar"/>
+          <s v="24/mar"/>
+          <s v="25/mar"/>
+          <s v="26/mar"/>
+          <s v="27/mar"/>
+          <s v="28/mar"/>
+          <s v="29/mar"/>
+          <s v="30/mar"/>
+          <s v="31/mar"/>
+          <s v="01/abr"/>
+          <s v="02/abr"/>
+          <s v="03/abr"/>
+          <s v="04/abr"/>
+          <s v="05/abr"/>
+          <s v="06/abr"/>
+          <s v="07/abr"/>
+          <s v="08/abr"/>
+          <s v="09/abr"/>
+          <s v="10/abr"/>
+          <s v="11/abr"/>
+          <s v="12/abr"/>
+          <s v="13/abr"/>
+          <s v="14/abr"/>
+          <s v="15/abr"/>
+          <s v="16/abr"/>
+          <s v="17/abr"/>
+          <s v="18/abr"/>
+          <s v="19/abr"/>
+          <s v="20/abr"/>
+          <s v="21/abr"/>
+          <s v="22/abr"/>
+          <s v="23/abr"/>
+          <s v="24/abr"/>
+          <s v="25/abr"/>
+          <s v="26/abr"/>
+          <s v="27/abr"/>
+          <s v="28/abr"/>
+          <s v="29/abr"/>
+          <s v="30/abr"/>
+          <s v="01/mai"/>
+          <s v="02/mai"/>
+          <s v="03/mai"/>
+          <s v="04/mai"/>
+          <s v="05/mai"/>
+          <s v="06/mai"/>
+          <s v="07/mai"/>
+          <s v="08/mai"/>
+          <s v="09/mai"/>
+          <s v="10/mai"/>
+          <s v="11/mai"/>
+          <s v="12/mai"/>
+          <s v="13/mai"/>
+          <s v="14/mai"/>
+          <s v="15/mai"/>
+          <s v="16/mai"/>
+          <s v="17/mai"/>
+          <s v="18/mai"/>
+          <s v="19/mai"/>
+          <s v="20/mai"/>
+          <s v="21/mai"/>
+          <s v="22/mai"/>
+          <s v="23/mai"/>
+          <s v="24/mai"/>
+          <s v="25/mai"/>
+          <s v="26/mai"/>
+          <s v="27/mai"/>
+          <s v="28/mai"/>
+          <s v="29/mai"/>
+          <s v="30/mai"/>
+          <s v="31/mai"/>
+          <s v="01/jun"/>
+          <s v="02/jun"/>
+          <s v="03/jun"/>
+          <s v="04/jun"/>
+          <s v="05/jun"/>
+          <s v="06/jun"/>
+          <s v="07/jun"/>
+          <s v="08/jun"/>
+          <s v="09/jun"/>
+          <s v="10/jun"/>
+          <s v="11/jun"/>
+          <s v="12/jun"/>
+          <s v="13/jun"/>
+          <s v="14/jun"/>
+          <s v="15/jun"/>
+          <s v="16/jun"/>
+          <s v="17/jun"/>
+          <s v="18/jun"/>
+          <s v="19/jun"/>
+          <s v="20/jun"/>
+          <s v="21/jun"/>
+          <s v="22/jun"/>
+          <s v="23/jun"/>
+          <s v="24/jun"/>
+          <s v="25/jun"/>
+          <s v="26/jun"/>
+          <s v="27/jun"/>
+          <s v="28/jun"/>
+          <s v="29/jun"/>
+          <s v="30/jun"/>
+          <s v="01/jul"/>
+          <s v="02/jul"/>
+          <s v="03/jul"/>
+          <s v="04/jul"/>
+          <s v="05/jul"/>
+          <s v="06/jul"/>
+          <s v="07/jul"/>
+          <s v="08/jul"/>
+          <s v="09/jul"/>
+          <s v="10/jul"/>
+          <s v="11/jul"/>
+          <s v="12/jul"/>
+          <s v="13/jul"/>
+          <s v="14/jul"/>
+          <s v="15/jul"/>
+          <s v="16/jul"/>
+          <s v="17/jul"/>
+          <s v="18/jul"/>
+          <s v="19/jul"/>
+          <s v="20/jul"/>
+          <s v="21/jul"/>
+          <s v="22/jul"/>
+          <s v="23/jul"/>
+          <s v="24/jul"/>
+          <s v="25/jul"/>
+          <s v="26/jul"/>
+          <s v="27/jul"/>
+          <s v="28/jul"/>
+          <s v="29/jul"/>
+          <s v="30/jul"/>
+          <s v="31/jul"/>
+          <s v="01/ago"/>
+          <s v="02/ago"/>
+          <s v="03/ago"/>
+          <s v="04/ago"/>
+          <s v="05/ago"/>
+          <s v="06/ago"/>
+          <s v="07/ago"/>
+          <s v="08/ago"/>
+          <s v="09/ago"/>
+          <s v="10/ago"/>
+          <s v="11/ago"/>
+          <s v="12/ago"/>
+          <s v="13/ago"/>
+          <s v="14/ago"/>
+          <s v="15/ago"/>
+          <s v="16/ago"/>
+          <s v="17/ago"/>
+          <s v="18/ago"/>
+          <s v="19/ago"/>
+          <s v="20/ago"/>
+          <s v="21/ago"/>
+          <s v="22/ago"/>
+          <s v="23/ago"/>
+          <s v="24/ago"/>
+          <s v="25/ago"/>
+          <s v="26/ago"/>
+          <s v="27/ago"/>
+          <s v="28/ago"/>
+          <s v="29/ago"/>
+          <s v="30/ago"/>
+          <s v="31/ago"/>
+          <s v="01/set"/>
+          <s v="02/set"/>
+          <s v="03/set"/>
+          <s v="04/set"/>
+          <s v="05/set"/>
+          <s v="06/set"/>
+          <s v="07/set"/>
+          <s v="08/set"/>
+          <s v="09/set"/>
+          <s v="10/set"/>
+          <s v="11/set"/>
+          <s v="12/set"/>
+          <s v="13/set"/>
+          <s v="14/set"/>
+          <s v="15/set"/>
+          <s v="16/set"/>
+          <s v="17/set"/>
+          <s v="18/set"/>
+          <s v="19/set"/>
+          <s v="20/set"/>
+          <s v="21/set"/>
+          <s v="22/set"/>
+          <s v="23/set"/>
+          <s v="24/set"/>
+          <s v="25/set"/>
+          <s v="26/set"/>
+          <s v="27/set"/>
+          <s v="28/set"/>
+          <s v="29/set"/>
+          <s v="30/set"/>
+          <s v="01/out"/>
+          <s v="02/out"/>
+          <s v="03/out"/>
+          <s v="04/out"/>
+          <s v="05/out"/>
+          <s v="06/out"/>
+          <s v="07/out"/>
+          <s v="08/out"/>
+          <s v="09/out"/>
+          <s v="10/out"/>
+          <s v="11/out"/>
+          <s v="12/out"/>
+          <s v="13/out"/>
+          <s v="14/out"/>
+          <s v="15/out"/>
+          <s v="16/out"/>
+          <s v="17/out"/>
+          <s v="18/out"/>
+          <s v="19/out"/>
+          <s v="20/out"/>
+          <s v="21/out"/>
+          <s v="22/out"/>
+          <s v="23/out"/>
+          <s v="24/out"/>
+          <s v="25/out"/>
+          <s v="26/out"/>
+          <s v="27/out"/>
+          <s v="28/out"/>
+          <s v="29/out"/>
+          <s v="30/out"/>
+          <s v="31/out"/>
+          <s v="01/nov"/>
+          <s v="02/nov"/>
+          <s v="03/nov"/>
+          <s v="04/nov"/>
+          <s v="05/nov"/>
+          <s v="06/nov"/>
+          <s v="07/nov"/>
+          <s v="08/nov"/>
+          <s v="09/nov"/>
+          <s v="10/nov"/>
+          <s v="11/nov"/>
+          <s v="12/nov"/>
+          <s v="13/nov"/>
+          <s v="14/nov"/>
+          <s v="15/nov"/>
+          <s v="16/nov"/>
+          <s v="17/nov"/>
+          <s v="18/nov"/>
+          <s v="19/nov"/>
+          <s v="20/nov"/>
+          <s v="21/nov"/>
+          <s v="22/nov"/>
+          <s v="23/nov"/>
+          <s v="24/nov"/>
+          <s v="25/nov"/>
+          <s v="26/nov"/>
+          <s v="27/nov"/>
+          <s v="28/nov"/>
+          <s v="29/nov"/>
+          <s v="30/nov"/>
+          <s v="01/dez"/>
+          <s v="02/dez"/>
+          <s v="03/dez"/>
+          <s v="04/dez"/>
+          <s v="05/dez"/>
+          <s v="06/dez"/>
+          <s v="07/dez"/>
+          <s v="08/dez"/>
+          <s v="09/dez"/>
+          <s v="10/dez"/>
+          <s v="11/dez"/>
+          <s v="12/dez"/>
+          <s v="13/dez"/>
+          <s v="14/dez"/>
+          <s v="15/dez"/>
+          <s v="16/dez"/>
+          <s v="17/dez"/>
+          <s v="18/dez"/>
+          <s v="19/dez"/>
+          <s v="20/dez"/>
+          <s v="21/dez"/>
+          <s v="22/dez"/>
+          <s v="23/dez"/>
+          <s v="24/dez"/>
+          <s v="25/dez"/>
+          <s v="26/dez"/>
+          <s v="27/dez"/>
+          <s v="28/dez"/>
+          <s v="29/dez"/>
+          <s v="30/dez"/>
+          <s v="31/dez"/>
+          <s v="&gt;23/07/2003"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Meses (Data)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2003-02-03T00:00:00" endDate="2003-07-23T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;03/02/2003"/>
+          <s v="jan"/>
+          <s v="fev"/>
+          <s v="mar"/>
+          <s v="abr"/>
+          <s v="mai"/>
+          <s v="jun"/>
+          <s v="jul"/>
+          <s v="ago"/>
+          <s v="set"/>
+          <s v="out"/>
+          <s v="nov"/>
+          <s v="dez"/>
+          <s v="&gt;23/07/2003"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Trimestres (Data)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="quarters" startDate="2003-02-03T00:00:00" endDate="2003-07-23T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;03/02/2003"/>
+          <s v="Trim1"/>
+          <s v="Trim2"/>
+          <s v="Trim3"/>
+          <s v="Trim4"/>
+          <s v="&gt;23/07/2003"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
@@ -1089,6 +1760,865 @@
     <x v="5"/>
     <x v="5"/>
     <n v="16000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="122">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2892"/>
+    <n v="123"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6842"/>
+    <n v="542"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1254"/>
+    <n v="54"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3658"/>
+    <n v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="4874"/>
+    <n v="122"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="2698"/>
+    <n v="123"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1254"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7856"/>
+    <n v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="3325"/>
+    <n v="24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="7852"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="3694"/>
+    <n v="58"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="1478"/>
+    <n v="48"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="1125"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="1145"/>
+    <n v="23"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="2254"/>
+    <n v="54"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="8874"/>
+    <n v="85"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="6693"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="2247"/>
+    <n v="31"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="9513"/>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="7852"/>
+    <n v="48"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="1212"/>
+    <n v="89"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+    <n v="1456"/>
+    <n v="36"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="3354"/>
+    <n v="47"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="3"/>
+    <n v="6647"/>
+    <n v="21"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="4569"/>
+    <n v="169"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="7896"/>
+    <n v="236"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="9658"/>
+    <n v="185"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="3"/>
+    <n v="4721"/>
+    <n v="1369"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="3"/>
+    <n v="5632"/>
+    <n v="17"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="1587"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="4587"/>
+    <n v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="3254"/>
+    <n v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="5412"/>
+    <n v="29"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="3"/>
+    <n v="8432"/>
+    <n v="29"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+    <n v="2145"/>
+    <n v="46"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="4829"/>
+    <n v="23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="1"/>
+    <n v="7852"/>
+    <n v="548"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="2"/>
+    <n v="8754"/>
+    <n v="133"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+    <n v="2154"/>
+    <n v="258"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="3"/>
+    <n v="5417"/>
+    <n v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="8975"/>
+    <n v="22"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="8754"/>
+    <n v="88"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="2"/>
+    <n v="2154"/>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="1"/>
+    <n v="5421"/>
+    <n v="15"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="3"/>
+    <n v="5489"/>
+    <n v="52"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="2"/>
+    <n v="7785"/>
+    <n v="66"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="1"/>
+    <n v="5161"/>
+    <n v="63"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="8574"/>
+    <n v="54"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="3"/>
+    <n v="4512"/>
+    <n v="12"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+    <n v="7845"/>
+    <n v="93"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="1"/>
+    <n v="2141"/>
+    <n v="96"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="1"/>
+    <n v="4545"/>
+    <n v="36"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="4141"/>
+    <n v="54"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="8451"/>
+    <n v="21"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="3"/>
+    <n v="7441"/>
+    <n v="87"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="3"/>
+    <n v="5145"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="2"/>
+    <n v="2214"/>
+    <n v="87"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="2"/>
+    <n v="5417"/>
+    <n v="57"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="8543"/>
+    <n v="87"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="1"/>
+    <n v="8747"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="3645"/>
+    <n v="25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="1"/>
+    <n v="6631"/>
+    <n v="76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="2"/>
+    <n v="4187"/>
+    <n v="21"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="3"/>
+    <n v="7845"/>
+    <n v="87"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="1364"/>
+    <n v="47"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="2"/>
+    <n v="5457"/>
+    <n v="22"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="3"/>
+    <n v="4146"/>
+    <n v="15"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="2"/>
+    <n v="7814"/>
+    <n v="31"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="3"/>
+    <n v="5847"/>
+    <n v="52"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="9852"/>
+    <n v="78"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="2175"/>
+    <n v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="1"/>
+    <n v="1787"/>
+    <n v="35"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+    <n v="1212"/>
+    <n v="21"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="2"/>
+    <n v="5641"/>
+    <n v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="3"/>
+    <n v="5874"/>
+    <n v="23"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="1"/>
+    <n v="2158"/>
+    <n v="63"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="2"/>
+    <n v="5748"/>
+    <n v="12"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="1"/>
+    <n v="1548"/>
+    <n v="10"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="1235"/>
+    <n v="52"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="3"/>
+    <n v="9854"/>
+    <n v="54"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="1"/>
+    <n v="3694"/>
+    <n v="21"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="3"/>
+    <n v="6981"/>
+    <n v="66"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="1"/>
+    <n v="9852"/>
+    <n v="326"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="2892"/>
+    <n v="123"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="1"/>
+    <n v="6842"/>
+    <n v="25"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="2"/>
+    <n v="1254"/>
+    <n v="100"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="3"/>
+    <n v="3658"/>
+    <n v="106"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="2"/>
+    <n v="4874"/>
+    <n v="145"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="1"/>
+    <n v="2698"/>
+    <n v="154"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="1"/>
+    <n v="1254"/>
+    <n v="261"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="0"/>
+    <n v="7856"/>
+    <n v="26"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="2"/>
+    <n v="3325"/>
+    <n v="113"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="3"/>
+    <n v="7852"/>
+    <n v="81"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="1"/>
+    <n v="3694"/>
+    <n v="20"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="3"/>
+    <n v="1478"/>
+    <n v="53"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="0"/>
+    <n v="1125"/>
+    <n v="289"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="1145"/>
+    <n v="191"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="3"/>
+    <n v="2254"/>
+    <n v="62"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="1"/>
+    <n v="8874"/>
+    <n v="353"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="0"/>
+    <n v="6693"/>
+    <n v="108"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="2"/>
+    <n v="2247"/>
+    <n v="156"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="3"/>
+    <n v="9513"/>
+    <n v="202"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="0"/>
+    <n v="7852"/>
+    <n v="387"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="1"/>
+    <n v="6842"/>
+    <n v="118"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="2"/>
+    <n v="1254"/>
+    <n v="181"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="3"/>
+    <n v="3658"/>
+    <n v="358"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="2"/>
+    <n v="4874"/>
+    <n v="139"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="1"/>
+    <n v="2698"/>
+    <n v="290"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="1"/>
+    <n v="1254"/>
+    <n v="398"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="0"/>
+    <n v="7856"/>
+    <n v="39"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="2"/>
+    <n v="3325"/>
+    <n v="58"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="3"/>
+    <n v="7852"/>
+    <n v="294"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="1"/>
+    <n v="3694"/>
+    <n v="160"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="3"/>
+    <n v="1478"/>
+    <n v="364"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="0"/>
+    <n v="1125"/>
+    <n v="126"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="0"/>
+    <n v="1145"/>
+    <n v="328"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="3"/>
+    <n v="2254"/>
+    <n v="197"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="1"/>
+    <n v="8874"/>
+    <n v="363"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="0"/>
+    <n v="6693"/>
+    <n v="112"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="2"/>
+    <n v="2247"/>
+    <n v="240"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="3"/>
+    <n v="9513"/>
+    <n v="131"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="0"/>
+    <n v="7852"/>
+    <n v="344"/>
+    <x v="5"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -1184,7 +2714,7 @@
     <dataField name="TOTAL" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1193,7 +2723,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1202,7 +2732,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1213,6 +2743,664 @@
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6201CA0C-B877-46B7-B794-C72043DCF319}" name="Tabela dinâmica2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I11:L15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="123">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="8"/>
+    <field x="7"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Soma de Unidades" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Vendas" fld="2" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Soma de Comissão" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="6">
+      <pivotArea field="8" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -1706,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,11 +4040,11 @@
       <c r="J10" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="43" t="s">
+      <c r="K10" s="45" t="s">
         <v>39</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -1878,10 +4066,10 @@
       <c r="J11" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="43">
         <v>10</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="42">
         <v>10000</v>
       </c>
     </row>
@@ -1901,10 +4089,10 @@
       <c r="J12" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="43">
         <v>7</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="42">
         <v>21000</v>
       </c>
     </row>
@@ -1922,12 +4110,12 @@
         <v>10000</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="42">
+        <v>36</v>
+      </c>
+      <c r="K13" s="43">
         <v>17</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="42">
         <v>31000</v>
       </c>
     </row>
@@ -1950,10 +4138,10 @@
       <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="43">
         <v>6</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="42">
         <v>18000</v>
       </c>
     </row>
@@ -1973,10 +4161,10 @@
       <c r="J15" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="43">
         <v>8</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="42">
         <v>20000</v>
       </c>
     </row>
@@ -1994,12 +4182,12 @@
         <v>16000</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="42">
+        <v>37</v>
+      </c>
+      <c r="K16" s="43">
         <v>14</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="42">
         <v>38000</v>
       </c>
     </row>
@@ -2010,10 +4198,10 @@
       <c r="J17" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="43">
         <v>15</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="42">
         <v>15000</v>
       </c>
     </row>
@@ -2027,32 +4215,32 @@
       <c r="J18" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="43">
         <v>11</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="42">
         <v>16000</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="42">
+        <v>38</v>
+      </c>
+      <c r="K19" s="43">
         <v>26</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="42">
         <v>31000</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="42">
+        <v>35</v>
+      </c>
+      <c r="K20" s="43">
         <v>57</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="42">
         <v>100000</v>
       </c>
     </row>
@@ -2067,10 +4255,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:Q141"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,9 +4269,11 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -2351,6 +4542,12 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
+      <c r="I9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -2360,29 +4557,89 @@
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="I11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
+      <c r="I12" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="48">
+        <v>4813</v>
+      </c>
+      <c r="K12" s="46">
+        <v>195923</v>
+      </c>
+      <c r="L12" s="46">
+        <v>9796.15</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
+      <c r="I13" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="48">
+        <v>5140</v>
+      </c>
+      <c r="K13" s="46">
+        <v>314407</v>
+      </c>
+      <c r="L13" s="46">
+        <v>15720.35</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
+      <c r="I14" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="48">
+        <v>4240</v>
+      </c>
+      <c r="K14" s="46">
+        <v>84488</v>
+      </c>
+      <c r="L14" s="46">
+        <v>4224.4000000000005</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
+      <c r="I15" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="48">
+        <v>14193</v>
+      </c>
+      <c r="K15" s="46">
+        <v>594818</v>
+      </c>
+      <c r="L15" s="46">
+        <v>29740.9</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2398,8 +4655,20 @@
       <c r="F19" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>37655</v>
       </c>
@@ -2415,8 +4684,12 @@
       <c r="F20" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="49">
+        <f>5%*D20</f>
+        <v>144.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>37656</v>
       </c>
@@ -2432,8 +4705,12 @@
       <c r="F21" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="49">
+        <f t="shared" ref="G21:G84" si="0">5%*D21</f>
+        <v>342.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>37657</v>
       </c>
@@ -2449,8 +4726,12 @@
       <c r="F22" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="49">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>37658</v>
       </c>
@@ -2466,8 +4747,12 @@
       <c r="F23" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="49">
+        <f t="shared" si="0"/>
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>37659</v>
       </c>
@@ -2483,8 +4768,12 @@
       <c r="F24" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="49">
+        <f t="shared" si="0"/>
+        <v>243.70000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>37662</v>
       </c>
@@ -2500,8 +4789,12 @@
       <c r="F25" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="49">
+        <f t="shared" si="0"/>
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>37663</v>
       </c>
@@ -2517,8 +4810,12 @@
       <c r="F26" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="49">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>37664</v>
       </c>
@@ -2534,8 +4831,12 @@
       <c r="F27" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="49">
+        <f t="shared" si="0"/>
+        <v>392.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>37665</v>
       </c>
@@ -2551,8 +4852,12 @@
       <c r="F28" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="49">
+        <f t="shared" si="0"/>
+        <v>166.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>37666</v>
       </c>
@@ -2568,8 +4873,12 @@
       <c r="F29" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="49">
+        <f t="shared" si="0"/>
+        <v>392.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>37669</v>
       </c>
@@ -2585,8 +4894,12 @@
       <c r="F30" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="49">
+        <f t="shared" si="0"/>
+        <v>184.70000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <v>37670</v>
       </c>
@@ -2602,8 +4915,12 @@
       <c r="F31" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="49">
+        <f t="shared" si="0"/>
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>37671</v>
       </c>
@@ -2619,8 +4936,12 @@
       <c r="F32" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="49">
+        <f t="shared" si="0"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>37672</v>
       </c>
@@ -2636,8 +4957,12 @@
       <c r="F33" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="49">
+        <f t="shared" si="0"/>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>37673</v>
       </c>
@@ -2653,8 +4978,12 @@
       <c r="F34" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="49">
+        <f t="shared" si="0"/>
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <v>37676</v>
       </c>
@@ -2670,8 +4999,12 @@
       <c r="F35" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="49">
+        <f t="shared" si="0"/>
+        <v>443.70000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>37677</v>
       </c>
@@ -2687,8 +5020,12 @@
       <c r="F36" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="49">
+        <f t="shared" si="0"/>
+        <v>334.65000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <v>37678</v>
       </c>
@@ -2704,8 +5041,12 @@
       <c r="F37" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="49">
+        <f t="shared" si="0"/>
+        <v>112.35000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>37679</v>
       </c>
@@ -2721,8 +5062,12 @@
       <c r="F38" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="49">
+        <f t="shared" si="0"/>
+        <v>475.65000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>37680</v>
       </c>
@@ -2738,8 +5083,12 @@
       <c r="F39" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="49">
+        <f t="shared" si="0"/>
+        <v>392.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>37683</v>
       </c>
@@ -2755,8 +5104,12 @@
       <c r="F40" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="49">
+        <f t="shared" si="0"/>
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>37684</v>
       </c>
@@ -2772,8 +5125,12 @@
       <c r="F41" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="49">
+        <f t="shared" si="0"/>
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>37685</v>
       </c>
@@ -2789,8 +5146,12 @@
       <c r="F42" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="49">
+        <f t="shared" si="0"/>
+        <v>167.70000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>37686</v>
       </c>
@@ -2806,8 +5167,12 @@
       <c r="F43" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="49">
+        <f t="shared" si="0"/>
+        <v>332.35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>37687</v>
       </c>
@@ -2823,8 +5188,12 @@
       <c r="F44" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="49">
+        <f t="shared" si="0"/>
+        <v>228.45000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <v>37690</v>
       </c>
@@ -2840,8 +5209,12 @@
       <c r="F45" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="49">
+        <f t="shared" si="0"/>
+        <v>394.8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
         <v>37691</v>
       </c>
@@ -2857,8 +5230,12 @@
       <c r="F46" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="49">
+        <f t="shared" si="0"/>
+        <v>482.90000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
         <v>37692</v>
       </c>
@@ -2874,8 +5251,12 @@
       <c r="F47" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="49">
+        <f t="shared" si="0"/>
+        <v>236.05</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
         <v>37693</v>
       </c>
@@ -2891,8 +5272,12 @@
       <c r="F48" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="49">
+        <f t="shared" si="0"/>
+        <v>281.60000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
         <v>37694</v>
       </c>
@@ -2908,8 +5293,12 @@
       <c r="F49" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="49">
+        <f t="shared" si="0"/>
+        <v>79.350000000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
         <v>37697</v>
       </c>
@@ -2925,8 +5314,12 @@
       <c r="F50" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="49">
+        <f t="shared" si="0"/>
+        <v>229.35000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
         <v>37698</v>
       </c>
@@ -2942,8 +5335,12 @@
       <c r="F51" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="49">
+        <f t="shared" si="0"/>
+        <v>162.70000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
         <v>37699</v>
       </c>
@@ -2959,8 +5356,12 @@
       <c r="F52" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="49">
+        <f t="shared" si="0"/>
+        <v>270.60000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
         <v>37700</v>
       </c>
@@ -2976,8 +5377,12 @@
       <c r="F53" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="49">
+        <f t="shared" si="0"/>
+        <v>421.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
         <v>37701</v>
       </c>
@@ -2993,8 +5398,12 @@
       <c r="F54" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="49">
+        <f t="shared" si="0"/>
+        <v>107.25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
         <v>37704</v>
       </c>
@@ -3010,8 +5419,12 @@
       <c r="F55" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="49">
+        <f t="shared" si="0"/>
+        <v>241.45000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
         <v>37705</v>
       </c>
@@ -3027,8 +5440,12 @@
       <c r="F56" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="49">
+        <f t="shared" si="0"/>
+        <v>392.6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
         <v>37706</v>
       </c>
@@ -3044,8 +5461,12 @@
       <c r="F57" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="49">
+        <f t="shared" si="0"/>
+        <v>437.70000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
         <v>37707</v>
       </c>
@@ -3061,8 +5482,12 @@
       <c r="F58" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="49">
+        <f t="shared" si="0"/>
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
         <v>37708</v>
       </c>
@@ -3078,8 +5503,12 @@
       <c r="F59" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="49">
+        <f t="shared" si="0"/>
+        <v>270.85000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
         <v>37711</v>
       </c>
@@ -3095,8 +5524,12 @@
       <c r="F60" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="49">
+        <f t="shared" si="0"/>
+        <v>448.75</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
         <v>37712</v>
       </c>
@@ -3112,8 +5545,22 @@
       <c r="F61" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="49">
+        <f>$I$61*D61</f>
+        <v>1047.2893698216781</v>
+      </c>
+      <c r="I61" s="52">
+        <v>0.11963552316902878</v>
+      </c>
+      <c r="J61" s="49">
+        <f>SUM(G61:G141)</f>
+        <v>41637.260000000009</v>
+      </c>
+      <c r="K61" s="47">
+        <v>41637.26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
         <v>37713</v>
       </c>
@@ -3129,8 +5576,12 @@
       <c r="F62" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="49">
+        <f t="shared" ref="G62:G102" si="1">$I$61*D62</f>
+        <v>257.694916906088</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
         <v>37714</v>
       </c>
@@ -3146,8 +5597,12 @@
       <c r="F63" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="49">
+        <f t="shared" si="1"/>
+        <v>648.544171099305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
         <v>37715</v>
       </c>
@@ -3163,8 +5618,12 @@
       <c r="F64" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="49">
+        <f t="shared" si="1"/>
+        <v>656.67938667479905</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
         <v>37718</v>
       </c>
@@ -3180,8 +5639,12 @@
       <c r="F65" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="49">
+        <f t="shared" si="1"/>
+        <v>931.3625478708891</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
         <v>37719</v>
       </c>
@@ -3197,8 +5660,12 @@
       <c r="F66" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="49">
+        <f t="shared" si="1"/>
+        <v>617.43893507535756</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
         <v>37720</v>
       </c>
@@ -3214,8 +5681,12 @@
       <c r="F67" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="49">
+        <f t="shared" si="1"/>
+        <v>1025.7549756512528</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
         <v>37721</v>
       </c>
@@ -3231,8 +5702,12 @@
       <c r="F68" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="49">
+        <f t="shared" si="1"/>
+        <v>539.7954805386579</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
         <v>37722</v>
       </c>
@@ -3248,8 +5723,12 @@
       <c r="F69" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="49">
+        <f t="shared" si="1"/>
+        <v>938.54067926103085</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
         <v>37725</v>
       </c>
@@ -3265,8 +5744,12 @@
       <c r="F70" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="49">
+        <f t="shared" si="1"/>
+        <v>256.13965510489061</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
         <v>37726</v>
       </c>
@@ -3282,8 +5765,12 @@
       <c r="F71" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="49">
+        <f t="shared" si="1"/>
+        <v>543.74345280323587</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="6">
         <v>37727</v>
       </c>
@@ -3299,8 +5786,12 @@
       <c r="F72" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="49">
+        <f t="shared" si="1"/>
+        <v>495.41070144294821</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="6">
         <v>37728</v>
       </c>
@@ -3316,8 +5807,12 @@
       <c r="F73" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="49">
+        <f t="shared" si="1"/>
+        <v>1011.0398063014622</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="6">
         <v>37729</v>
       </c>
@@ -3333,8 +5828,12 @@
       <c r="F74" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="49">
+        <f t="shared" si="1"/>
+        <v>890.20792790074313</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="6">
         <v>37732</v>
       </c>
@@ -3350,8 +5849,12 @@
       <c r="F75" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="49">
+        <f t="shared" si="1"/>
+        <v>615.52476670465308</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="6">
         <v>37733</v>
       </c>
@@ -3367,8 +5870,12 @@
       <c r="F76" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="49">
+        <f t="shared" si="1"/>
+        <v>264.87304829622974</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="6">
         <v>37734</v>
       </c>
@@ -3384,8 +5891,12 @@
       <c r="F77" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="49">
+        <f t="shared" si="1"/>
+        <v>648.06562900662891</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="6">
         <v>37735</v>
       </c>
@@ -3401,8 +5912,12 @@
       <c r="F78" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="49">
+        <f t="shared" si="1"/>
+        <v>1022.0462744330129</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="6">
         <v>37736</v>
       </c>
@@ -3418,8 +5933,12 @@
       <c r="F79" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="49">
+        <f t="shared" si="1"/>
+        <v>1046.4519211594948</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="6">
         <v>37739</v>
       </c>
@@ -3435,8 +5954,12 @@
       <c r="F80" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="49">
+        <f t="shared" si="1"/>
+        <v>436.07148195110994</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="6">
         <v>37740</v>
       </c>
@@ -3452,8 +5975,12 @@
       <c r="F81" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="49">
+        <f t="shared" si="1"/>
+        <v>793.30315413382982</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="6">
         <v>37741</v>
       </c>
@@ -3469,8 +5996,12 @@
       <c r="F82" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="49">
+        <f t="shared" si="1"/>
+        <v>500.91393550872351</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
         <v>37746</v>
       </c>
@@ -3486,8 +6017,12 @@
       <c r="F83" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="49">
+        <f t="shared" si="1"/>
+        <v>938.54067926103085</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
         <v>37747</v>
       </c>
@@ -3503,8 +6038,12 @@
       <c r="F84" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="49">
+        <f t="shared" si="1"/>
+        <v>163.18285360255527</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
         <v>37748</v>
       </c>
@@ -3520,8 +6059,12 @@
       <c r="F85" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="49">
+        <f t="shared" si="1"/>
+        <v>652.85104993339007</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <v>37749</v>
       </c>
@@ -3537,8 +6080,12 @@
       <c r="F86" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="49">
+        <f t="shared" si="1"/>
+        <v>496.00887905879335</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
         <v>37750</v>
       </c>
@@ -3554,8 +6101,12 @@
       <c r="F87" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="49">
+        <f t="shared" si="1"/>
+        <v>934.83197804279098</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
         <v>37753</v>
       </c>
@@ -3571,8 +6122,12 @@
       <c r="F88" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="49">
+        <f t="shared" si="1"/>
+        <v>699.50890396931129</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
         <v>37754</v>
       </c>
@@ -3588,8 +6143,12 @@
       <c r="F89" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="49">
+        <f t="shared" si="1"/>
+        <v>1178.6491742612716</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
         <v>37755</v>
       </c>
@@ -3605,8 +6164,12 @@
       <c r="F90" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="49">
+        <f t="shared" si="1"/>
+        <v>260.20726289263763</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
         <v>37756</v>
       </c>
@@ -3622,8 +6185,12 @@
       <c r="F91" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="49">
+        <f t="shared" si="1"/>
+        <v>213.78867990305443</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
         <v>37757</v>
       </c>
@@ -3639,8 +6206,12 @@
       <c r="F92" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="49">
+        <f t="shared" si="1"/>
+        <v>144.99825408086289</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
         <v>37760</v>
       </c>
@@ -3656,8 +6227,12 @@
       <c r="F93" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="49">
+        <f t="shared" si="1"/>
+        <v>674.8639861964914</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
         <v>37761</v>
       </c>
@@ -3673,8 +6248,12 @@
       <c r="F94" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="49">
+        <f t="shared" si="1"/>
+        <v>702.73906309487506</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
         <v>37762</v>
       </c>
@@ -3690,8 +6269,12 @@
       <c r="F95" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="49">
+        <f t="shared" si="1"/>
+        <v>258.17345899876409</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="6">
         <v>37763</v>
       </c>
@@ -3707,8 +6290,12 @@
       <c r="F96" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="49">
+        <f t="shared" si="1"/>
+        <v>687.66498717557749</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
         <v>37764</v>
       </c>
@@ -3724,8 +6311,12 @@
       <c r="F97" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="49">
+        <f t="shared" si="1"/>
+        <v>185.19578986565656</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
         <v>37767</v>
       </c>
@@ -3741,8 +6332,12 @@
       <c r="F98" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="49">
+        <f t="shared" si="1"/>
+        <v>147.74987111375054</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
         <v>37768</v>
       </c>
@@ -3758,8 +6353,12 @@
       <c r="F99" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="49">
+        <f t="shared" si="1"/>
+        <v>1178.8884453076096</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
         <v>37769</v>
       </c>
@@ -3775,8 +6374,12 @@
       <c r="F100" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="49">
+        <f t="shared" si="1"/>
+        <v>441.93362258639235</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
         <v>37770</v>
       </c>
@@ -3792,8 +6395,12 @@
       <c r="F101" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="49">
+        <f t="shared" si="1"/>
+        <v>835.17558724298999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
         <v>37771</v>
       </c>
@@ -3809,8 +6416,12 @@
       <c r="F102" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="49">
+        <f t="shared" si="1"/>
+        <v>1178.6491742612716</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
         <v>37775</v>
       </c>
@@ -3826,8 +6437,12 @@
       <c r="F103" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="49">
+        <f t="shared" ref="G85:G141" si="2">5%*D103</f>
+        <v>144.6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
         <v>37776</v>
       </c>
@@ -3843,8 +6458,12 @@
       <c r="F104" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="49">
+        <f t="shared" si="2"/>
+        <v>342.1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
         <v>37777</v>
       </c>
@@ -3860,8 +6479,12 @@
       <c r="F105" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="49">
+        <f t="shared" si="2"/>
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>37778</v>
       </c>
@@ -3877,8 +6500,12 @@
       <c r="F106" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="49">
+        <f t="shared" si="2"/>
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
         <v>37779</v>
       </c>
@@ -3894,8 +6521,12 @@
       <c r="F107" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="49">
+        <f t="shared" si="2"/>
+        <v>243.70000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
         <v>37780</v>
       </c>
@@ -3911,8 +6542,12 @@
       <c r="F108" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="49">
+        <f t="shared" si="2"/>
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
         <v>37781</v>
       </c>
@@ -3928,8 +6563,12 @@
       <c r="F109" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="49">
+        <f t="shared" si="2"/>
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
         <v>37782</v>
       </c>
@@ -3945,8 +6584,12 @@
       <c r="F110" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="49">
+        <f t="shared" si="2"/>
+        <v>392.8</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
         <v>37783</v>
       </c>
@@ -3962,8 +6605,12 @@
       <c r="F111" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="49">
+        <f t="shared" si="2"/>
+        <v>166.25</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
         <v>37784</v>
       </c>
@@ -3979,8 +6626,12 @@
       <c r="F112" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="49">
+        <f t="shared" si="2"/>
+        <v>392.6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
         <v>37785</v>
       </c>
@@ -3996,8 +6647,12 @@
       <c r="F113" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="49">
+        <f t="shared" si="2"/>
+        <v>184.70000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
         <v>37786</v>
       </c>
@@ -4013,8 +6668,12 @@
       <c r="F114" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="49">
+        <f t="shared" si="2"/>
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
         <v>37787</v>
       </c>
@@ -4030,8 +6689,12 @@
       <c r="F115" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="49">
+        <f t="shared" si="2"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
         <v>37788</v>
       </c>
@@ -4047,8 +6710,12 @@
       <c r="F116" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="49">
+        <f t="shared" si="2"/>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
         <v>37789</v>
       </c>
@@ -4064,8 +6731,12 @@
       <c r="F117" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="49">
+        <f t="shared" si="2"/>
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6">
         <v>37790</v>
       </c>
@@ -4081,8 +6752,12 @@
       <c r="F118" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="49">
+        <f t="shared" si="2"/>
+        <v>443.70000000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
         <v>37791</v>
       </c>
@@ -4098,8 +6773,12 @@
       <c r="F119" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="49">
+        <f t="shared" si="2"/>
+        <v>334.65000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
         <v>37792</v>
       </c>
@@ -4115,8 +6794,12 @@
       <c r="F120" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="49">
+        <f t="shared" si="2"/>
+        <v>112.35000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
         <v>37793</v>
       </c>
@@ -4132,8 +6815,12 @@
       <c r="F121" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="49">
+        <f t="shared" si="2"/>
+        <v>475.65000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
         <v>37794</v>
       </c>
@@ -4149,8 +6836,12 @@
       <c r="F122" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="49">
+        <f t="shared" si="2"/>
+        <v>392.6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
         <v>37806</v>
       </c>
@@ -4166,8 +6857,12 @@
       <c r="F123" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="49">
+        <f t="shared" ref="G123:G141" si="3">$I$61*D123</f>
+        <v>818.54624952249492</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
         <v>37807</v>
       </c>
@@ -4183,8 +6878,12 @@
       <c r="F124" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="49">
+        <f t="shared" si="3"/>
+        <v>150.0229460539621</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
         <v>37808</v>
       </c>
@@ -4200,8 +6899,12 @@
       <c r="F125" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="49">
+        <f t="shared" si="3"/>
+        <v>437.62674375230728</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
         <v>37809</v>
       </c>
@@ -4217,8 +6920,12 @@
       <c r="F126" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="49">
+        <f t="shared" si="3"/>
+        <v>583.10353992584635</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
         <v>37810</v>
       </c>
@@ -4234,8 +6941,12 @@
       <c r="F127" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="49">
+        <f t="shared" si="3"/>
+        <v>322.77664151003967</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
         <v>37811</v>
       </c>
@@ -4251,8 +6962,12 @@
       <c r="F128" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="49">
+        <f t="shared" si="3"/>
+        <v>150.0229460539621</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
         <v>37812</v>
       </c>
@@ -4268,8 +6983,12 @@
       <c r="F129" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="49">
+        <f t="shared" si="3"/>
+        <v>939.85667001589013</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
         <v>37813</v>
       </c>
@@ -4285,8 +7004,12 @@
       <c r="F130" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="49">
+        <f t="shared" si="3"/>
+        <v>397.7881145370207</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="6">
         <v>37814</v>
       </c>
@@ -4302,8 +7025,12 @@
       <c r="F131" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="49">
+        <f t="shared" si="3"/>
+        <v>939.37812792321404</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="6">
         <v>37815</v>
       </c>
@@ -4319,8 +7046,12 @@
       <c r="F132" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="49">
+        <f t="shared" si="3"/>
+        <v>441.93362258639235</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
         <v>37816</v>
       </c>
@@ -4336,8 +7067,12 @@
       <c r="F133" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="49">
+        <f t="shared" si="3"/>
+        <v>176.82130324382453</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
         <v>37817</v>
       </c>
@@ -4353,8 +7088,12 @@
       <c r="F134" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="49">
+        <f t="shared" si="3"/>
+        <v>134.58996356515738</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
         <v>37818</v>
       </c>
@@ -4370,8 +7109,12 @@
       <c r="F135" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="49">
+        <f t="shared" si="3"/>
+        <v>136.98267402853796</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
         <v>37819</v>
       </c>
@@ -4387,8 +7130,12 @@
       <c r="F136" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="49">
+        <f t="shared" si="3"/>
+        <v>269.6584692229909</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
         <v>37820</v>
       </c>
@@ -4404,8 +7151,12 @@
       <c r="F137" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="49">
+        <f t="shared" si="3"/>
+        <v>1061.6456326019613</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
         <v>37821</v>
       </c>
@@ -4421,8 +7172,12 @@
       <c r="F138" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="49">
+        <f t="shared" si="3"/>
+        <v>800.72055657030967</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
         <v>37822</v>
       </c>
@@ -4438,8 +7193,12 @@
       <c r="F139" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="49">
+        <f t="shared" si="3"/>
+        <v>268.82102056080765</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
         <v>37823</v>
       </c>
@@ -4455,8 +7214,12 @@
       <c r="F140" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="49">
+        <f t="shared" si="3"/>
+        <v>1138.0927319069708</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
         <v>37824</v>
       </c>
@@ -4472,13 +7235,26 @@
       <c r="F141" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="G141" s="49">
+        <f t="shared" si="3"/>
+        <v>939.37812792321404</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B19:G141" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Abril"/>
+        <filter val="Julho"/>
+        <filter val="Maio"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B2:Q6"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Materia_2-PowerBi/IP - EX 50 - Tabela dinamica I (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 50 - Tabela dinamica I (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5AF39C-6E71-44C7-A809-6C8AC02E1E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627914D8-2C8F-4A0A-B4FD-B5B0C0638F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +335,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -523,17 +529,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -546,7 +541,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -649,13 +644,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -4255,11 +4253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:Q141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4655,20 +4652,20 @@
       <c r="F19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>37655</v>
       </c>
@@ -4684,12 +4681,22 @@
       <c r="F20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="49">
-        <f>5%*D20</f>
-        <v>144.6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="51">
+        <f>$I$20*D20</f>
+        <v>202.44000000000005</v>
+      </c>
+      <c r="I20" s="50">
+        <v>7.0000000000000021E-2</v>
+      </c>
+      <c r="J20" s="49">
+        <f>SUM(G20:G141)</f>
+        <v>41637.260000000024</v>
+      </c>
+      <c r="K20" s="47">
+        <v>41637.26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>37656</v>
       </c>
@@ -4705,12 +4712,12 @@
       <c r="F21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="49">
-        <f t="shared" ref="G21:G84" si="0">5%*D21</f>
-        <v>342.1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="51">
+        <f t="shared" ref="G21:G84" si="0">$I$20*D21</f>
+        <v>478.94000000000017</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>37657</v>
       </c>
@@ -4726,12 +4733,12 @@
       <c r="F22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="51">
         <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>87.78000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>37658</v>
       </c>
@@ -4747,12 +4754,12 @@
       <c r="F23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="51">
         <f t="shared" si="0"/>
-        <v>182.9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>256.06000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>37659</v>
       </c>
@@ -4768,12 +4775,12 @@
       <c r="F24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="51">
         <f t="shared" si="0"/>
-        <v>243.70000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>341.18000000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>37662</v>
       </c>
@@ -4789,12 +4796,12 @@
       <c r="F25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="51">
         <f t="shared" si="0"/>
-        <v>134.9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>188.86000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>37663</v>
       </c>
@@ -4810,12 +4817,12 @@
       <c r="F26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="51">
         <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>87.78000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>37664</v>
       </c>
@@ -4831,12 +4838,12 @@
       <c r="F27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="51">
         <f t="shared" si="0"/>
-        <v>392.8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>549.92000000000019</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>37665</v>
       </c>
@@ -4852,12 +4859,12 @@
       <c r="F28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="51">
         <f t="shared" si="0"/>
-        <v>166.25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>232.75000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>37666</v>
       </c>
@@ -4873,12 +4880,12 @@
       <c r="F29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="51">
         <f t="shared" si="0"/>
-        <v>392.6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>549.64000000000021</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>37669</v>
       </c>
@@ -4894,12 +4901,12 @@
       <c r="F30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="51">
         <f t="shared" si="0"/>
-        <v>184.70000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>258.5800000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <v>37670</v>
       </c>
@@ -4915,12 +4922,12 @@
       <c r="F31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="51">
         <f t="shared" si="0"/>
-        <v>73.900000000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>103.46000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>37671</v>
       </c>
@@ -4936,12 +4943,12 @@
       <c r="F32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="51">
         <f t="shared" si="0"/>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>78.750000000000028</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>37672</v>
       </c>
@@ -4957,12 +4964,12 @@
       <c r="F33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="51">
         <f t="shared" si="0"/>
-        <v>57.25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>80.15000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>37673</v>
       </c>
@@ -4978,12 +4985,12 @@
       <c r="F34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="51">
         <f t="shared" si="0"/>
-        <v>112.7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>157.78000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <v>37676</v>
       </c>
@@ -4999,12 +5006,12 @@
       <c r="F35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G35" s="51">
         <f t="shared" si="0"/>
-        <v>443.70000000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>621.18000000000018</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>37677</v>
       </c>
@@ -5020,12 +5027,12 @@
       <c r="F36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="51">
         <f t="shared" si="0"/>
-        <v>334.65000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>468.51000000000016</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <v>37678</v>
       </c>
@@ -5041,12 +5048,12 @@
       <c r="F37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="49">
+      <c r="G37" s="51">
         <f t="shared" si="0"/>
-        <v>112.35000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>157.29000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>37679</v>
       </c>
@@ -5062,12 +5069,12 @@
       <c r="F38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="51">
         <f t="shared" si="0"/>
-        <v>475.65000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>665.9100000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>37680</v>
       </c>
@@ -5083,12 +5090,12 @@
       <c r="F39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="49">
+      <c r="G39" s="51">
         <f t="shared" si="0"/>
-        <v>392.6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>549.64000000000021</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>37683</v>
       </c>
@@ -5104,12 +5111,12 @@
       <c r="F40" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="49">
+      <c r="G40" s="51">
         <f t="shared" si="0"/>
-        <v>60.6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>84.840000000000032</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>37684</v>
       </c>
@@ -5125,12 +5132,12 @@
       <c r="F41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41" s="51">
         <f t="shared" si="0"/>
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>101.92000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>37685</v>
       </c>
@@ -5146,12 +5153,12 @@
       <c r="F42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="49">
+      <c r="G42" s="51">
         <f t="shared" si="0"/>
-        <v>167.70000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>234.78000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>37686</v>
       </c>
@@ -5167,12 +5174,12 @@
       <c r="F43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="51">
         <f t="shared" si="0"/>
-        <v>332.35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>465.29000000000013</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>37687</v>
       </c>
@@ -5188,12 +5195,12 @@
       <c r="F44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="49">
+      <c r="G44" s="51">
         <f t="shared" si="0"/>
-        <v>228.45000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>319.8300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <v>37690</v>
       </c>
@@ -5209,12 +5216,12 @@
       <c r="F45" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="49">
+      <c r="G45" s="51">
         <f t="shared" si="0"/>
-        <v>394.8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>552.72000000000014</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
         <v>37691</v>
       </c>
@@ -5230,12 +5237,12 @@
       <c r="F46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="49">
+      <c r="G46" s="51">
         <f t="shared" si="0"/>
-        <v>482.90000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>676.06000000000017</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
         <v>37692</v>
       </c>
@@ -5251,12 +5258,12 @@
       <c r="F47" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="49">
+      <c r="G47" s="51">
         <f t="shared" si="0"/>
-        <v>236.05</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>330.47000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
         <v>37693</v>
       </c>
@@ -5272,12 +5279,12 @@
       <c r="F48" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="51">
         <f t="shared" si="0"/>
-        <v>281.60000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>394.24000000000012</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
         <v>37694</v>
       </c>
@@ -5293,12 +5300,12 @@
       <c r="F49" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="49">
+      <c r="G49" s="51">
         <f t="shared" si="0"/>
-        <v>79.350000000000009</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>111.09000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
         <v>37697</v>
       </c>
@@ -5314,12 +5321,12 @@
       <c r="F50" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="49">
+      <c r="G50" s="51">
         <f t="shared" si="0"/>
-        <v>229.35000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>321.09000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
         <v>37698</v>
       </c>
@@ -5335,12 +5342,12 @@
       <c r="F51" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="49">
+      <c r="G51" s="51">
         <f t="shared" si="0"/>
-        <v>162.70000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>227.78000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
         <v>37699</v>
       </c>
@@ -5356,12 +5363,12 @@
       <c r="F52" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="51">
         <f t="shared" si="0"/>
-        <v>270.60000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>378.84000000000009</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
         <v>37700</v>
       </c>
@@ -5377,12 +5384,12 @@
       <c r="F53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="49">
+      <c r="G53" s="51">
         <f t="shared" si="0"/>
-        <v>421.6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>590.24000000000012</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
         <v>37701</v>
       </c>
@@ -5398,12 +5405,12 @@
       <c r="F54" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G54" s="51">
         <f t="shared" si="0"/>
-        <v>107.25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>150.15000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
         <v>37704</v>
       </c>
@@ -5419,12 +5426,12 @@
       <c r="F55" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="49">
+      <c r="G55" s="51">
         <f t="shared" si="0"/>
-        <v>241.45000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>338.03000000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
         <v>37705</v>
       </c>
@@ -5440,12 +5447,12 @@
       <c r="F56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="49">
+      <c r="G56" s="51">
         <f t="shared" si="0"/>
-        <v>392.6</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>549.64000000000021</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
         <v>37706</v>
       </c>
@@ -5461,12 +5468,12 @@
       <c r="F57" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="49">
+      <c r="G57" s="51">
         <f t="shared" si="0"/>
-        <v>437.70000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>612.7800000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
         <v>37707</v>
       </c>
@@ -5482,12 +5489,12 @@
       <c r="F58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="49">
+      <c r="G58" s="51">
         <f t="shared" si="0"/>
-        <v>107.7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>150.78000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
         <v>37708</v>
       </c>
@@ -5503,12 +5510,12 @@
       <c r="F59" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G59" s="51">
         <f t="shared" si="0"/>
-        <v>270.85000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>379.19000000000011</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
         <v>37711</v>
       </c>
@@ -5524,12 +5531,12 @@
       <c r="F60" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="49">
+      <c r="G60" s="51">
         <f t="shared" si="0"/>
-        <v>448.75</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+        <v>628.25000000000023</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
         <v>37712</v>
       </c>
@@ -5545,22 +5552,12 @@
       <c r="F61" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="49">
-        <f>$I$61*D61</f>
-        <v>1047.2893698216781</v>
-      </c>
-      <c r="I61" s="52">
-        <v>0.11963552316902878</v>
-      </c>
-      <c r="J61" s="49">
-        <f>SUM(G61:G141)</f>
-        <v>41637.260000000009</v>
-      </c>
-      <c r="K61" s="47">
-        <v>41637.26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G61" s="51">
+        <f t="shared" si="0"/>
+        <v>612.7800000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
         <v>37713</v>
       </c>
@@ -5576,12 +5573,12 @@
       <c r="F62" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="49">
-        <f t="shared" ref="G62:G102" si="1">$I$61*D62</f>
-        <v>257.694916906088</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G62" s="51">
+        <f t="shared" si="0"/>
+        <v>150.78000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
         <v>37714</v>
       </c>
@@ -5597,12 +5594,12 @@
       <c r="F63" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="49">
-        <f t="shared" si="1"/>
-        <v>648.544171099305</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G63" s="51">
+        <f t="shared" si="0"/>
+        <v>379.47000000000008</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
         <v>37715</v>
       </c>
@@ -5618,9 +5615,9 @@
       <c r="F64" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="49">
-        <f t="shared" si="1"/>
-        <v>656.67938667479905</v>
+      <c r="G64" s="51">
+        <f t="shared" si="0"/>
+        <v>384.23000000000013</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
@@ -5639,9 +5636,9 @@
       <c r="F65" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="49">
-        <f t="shared" si="1"/>
-        <v>931.3625478708891</v>
+      <c r="G65" s="51">
+        <f t="shared" si="0"/>
+        <v>544.95000000000016</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -5660,9 +5657,9 @@
       <c r="F66" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="49">
-        <f t="shared" si="1"/>
-        <v>617.43893507535756</v>
+      <c r="G66" s="51">
+        <f t="shared" si="0"/>
+        <v>361.2700000000001</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
@@ -5681,9 +5678,9 @@
       <c r="F67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G67" s="49">
-        <f t="shared" si="1"/>
-        <v>1025.7549756512528</v>
+      <c r="G67" s="51">
+        <f t="shared" si="0"/>
+        <v>600.18000000000018</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -5702,9 +5699,9 @@
       <c r="F68" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="49">
-        <f t="shared" si="1"/>
-        <v>539.7954805386579</v>
+      <c r="G68" s="51">
+        <f t="shared" si="0"/>
+        <v>315.84000000000009</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -5723,9 +5720,9 @@
       <c r="F69" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="49">
-        <f t="shared" si="1"/>
-        <v>938.54067926103085</v>
+      <c r="G69" s="51">
+        <f t="shared" si="0"/>
+        <v>549.1500000000002</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -5744,9 +5741,9 @@
       <c r="F70" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="49">
-        <f t="shared" si="1"/>
-        <v>256.13965510489061</v>
+      <c r="G70" s="51">
+        <f t="shared" si="0"/>
+        <v>149.87000000000003</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -5765,9 +5762,9 @@
       <c r="F71" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="49">
-        <f t="shared" si="1"/>
-        <v>543.74345280323587</v>
+      <c r="G71" s="51">
+        <f t="shared" si="0"/>
+        <v>318.15000000000009</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -5786,9 +5783,9 @@
       <c r="F72" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="49">
-        <f t="shared" si="1"/>
-        <v>495.41070144294821</v>
+      <c r="G72" s="51">
+        <f t="shared" si="0"/>
+        <v>289.87000000000006</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -5807,9 +5804,9 @@
       <c r="F73" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G73" s="49">
-        <f t="shared" si="1"/>
-        <v>1011.0398063014622</v>
+      <c r="G73" s="51">
+        <f t="shared" si="0"/>
+        <v>591.57000000000016</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -5828,9 +5825,9 @@
       <c r="F74" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G74" s="49">
-        <f t="shared" si="1"/>
-        <v>890.20792790074313</v>
+      <c r="G74" s="51">
+        <f t="shared" si="0"/>
+        <v>520.87000000000012</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -5849,9 +5846,9 @@
       <c r="F75" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="49">
-        <f t="shared" si="1"/>
-        <v>615.52476670465308</v>
+      <c r="G75" s="51">
+        <f t="shared" si="0"/>
+        <v>360.15000000000009</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
@@ -5870,9 +5867,9 @@
       <c r="F76" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G76" s="49">
-        <f t="shared" si="1"/>
-        <v>264.87304829622974</v>
+      <c r="G76" s="51">
+        <f t="shared" si="0"/>
+        <v>154.98000000000005</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
@@ -5891,9 +5888,9 @@
       <c r="F77" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="49">
-        <f t="shared" si="1"/>
-        <v>648.06562900662891</v>
+      <c r="G77" s="51">
+        <f t="shared" si="0"/>
+        <v>379.19000000000011</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
@@ -5912,9 +5909,9 @@
       <c r="F78" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G78" s="49">
-        <f t="shared" si="1"/>
-        <v>1022.0462744330129</v>
+      <c r="G78" s="51">
+        <f t="shared" si="0"/>
+        <v>598.01000000000022</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
@@ -5933,9 +5930,9 @@
       <c r="F79" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="49">
-        <f t="shared" si="1"/>
-        <v>1046.4519211594948</v>
+      <c r="G79" s="51">
+        <f t="shared" si="0"/>
+        <v>612.29000000000019</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
@@ -5954,9 +5951,9 @@
       <c r="F80" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G80" s="49">
-        <f t="shared" si="1"/>
-        <v>436.07148195110994</v>
+      <c r="G80" s="51">
+        <f t="shared" si="0"/>
+        <v>255.15000000000006</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -5975,9 +5972,9 @@
       <c r="F81" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G81" s="49">
-        <f t="shared" si="1"/>
-        <v>793.30315413382982</v>
+      <c r="G81" s="51">
+        <f t="shared" si="0"/>
+        <v>464.17000000000013</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
@@ -5996,9 +5993,9 @@
       <c r="F82" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="49">
-        <f t="shared" si="1"/>
-        <v>500.91393550872351</v>
+      <c r="G82" s="51">
+        <f t="shared" si="0"/>
+        <v>293.09000000000009</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
@@ -6017,9 +6014,9 @@
       <c r="F83" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G83" s="49">
-        <f t="shared" si="1"/>
-        <v>938.54067926103085</v>
+      <c r="G83" s="51">
+        <f t="shared" si="0"/>
+        <v>549.1500000000002</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -6038,9 +6035,9 @@
       <c r="F84" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G84" s="49">
-        <f t="shared" si="1"/>
-        <v>163.18285360255527</v>
+      <c r="G84" s="51">
+        <f t="shared" si="0"/>
+        <v>95.480000000000032</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -6059,9 +6056,9 @@
       <c r="F85" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G85" s="49">
-        <f t="shared" si="1"/>
-        <v>652.85104993339007</v>
+      <c r="G85" s="51">
+        <f t="shared" ref="G85:G141" si="1">$I$20*D85</f>
+        <v>381.99000000000012</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
@@ -6080,9 +6077,9 @@
       <c r="F86" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G86" s="49">
+      <c r="G86" s="51">
         <f t="shared" si="1"/>
-        <v>496.00887905879335</v>
+        <v>290.22000000000008</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -6101,9 +6098,9 @@
       <c r="F87" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G87" s="49">
+      <c r="G87" s="51">
         <f t="shared" si="1"/>
-        <v>934.83197804279098</v>
+        <v>546.98000000000013</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -6122,9 +6119,9 @@
       <c r="F88" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G88" s="49">
+      <c r="G88" s="51">
         <f t="shared" si="1"/>
-        <v>699.50890396931129</v>
+        <v>409.29000000000013</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
@@ -6143,9 +6140,9 @@
       <c r="F89" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G89" s="49">
+      <c r="G89" s="51">
         <f t="shared" si="1"/>
-        <v>1178.6491742612716</v>
+        <v>689.64000000000021</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
@@ -6164,9 +6161,9 @@
       <c r="F90" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G90" s="49">
+      <c r="G90" s="51">
         <f t="shared" si="1"/>
-        <v>260.20726289263763</v>
+        <v>152.25000000000006</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -6185,9 +6182,9 @@
       <c r="F91" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G91" s="49">
+      <c r="G91" s="51">
         <f t="shared" si="1"/>
-        <v>213.78867990305443</v>
+        <v>125.09000000000003</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
@@ -6206,9 +6203,9 @@
       <c r="F92" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G92" s="49">
+      <c r="G92" s="51">
         <f t="shared" si="1"/>
-        <v>144.99825408086289</v>
+        <v>84.840000000000032</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -6227,9 +6224,9 @@
       <c r="F93" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G93" s="49">
+      <c r="G93" s="51">
         <f t="shared" si="1"/>
-        <v>674.8639861964914</v>
+        <v>394.87000000000012</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
@@ -6248,9 +6245,9 @@
       <c r="F94" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G94" s="49">
+      <c r="G94" s="51">
         <f t="shared" si="1"/>
-        <v>702.73906309487506</v>
+        <v>411.18000000000012</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
@@ -6269,9 +6266,9 @@
       <c r="F95" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G95" s="49">
+      <c r="G95" s="51">
         <f t="shared" si="1"/>
-        <v>258.17345899876409</v>
+        <v>151.06000000000003</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
@@ -6290,9 +6287,9 @@
       <c r="F96" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G96" s="49">
+      <c r="G96" s="51">
         <f t="shared" si="1"/>
-        <v>687.66498717557749</v>
+        <v>402.36000000000013</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -6311,9 +6308,9 @@
       <c r="F97" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G97" s="49">
+      <c r="G97" s="51">
         <f t="shared" si="1"/>
-        <v>185.19578986565656</v>
+        <v>108.36000000000003</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
@@ -6332,9 +6329,9 @@
       <c r="F98" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G98" s="49">
+      <c r="G98" s="51">
         <f t="shared" si="1"/>
-        <v>147.74987111375054</v>
+        <v>86.450000000000031</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
@@ -6353,9 +6350,9 @@
       <c r="F99" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="49">
+      <c r="G99" s="51">
         <f t="shared" si="1"/>
-        <v>1178.8884453076096</v>
+        <v>689.7800000000002</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
@@ -6374,9 +6371,9 @@
       <c r="F100" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="49">
+      <c r="G100" s="51">
         <f t="shared" si="1"/>
-        <v>441.93362258639235</v>
+        <v>258.5800000000001</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
@@ -6395,9 +6392,9 @@
       <c r="F101" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G101" s="49">
+      <c r="G101" s="51">
         <f t="shared" si="1"/>
-        <v>835.17558724298999</v>
+        <v>488.67000000000013</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
@@ -6416,12 +6413,12 @@
       <c r="F102" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G102" s="49">
+      <c r="G102" s="51">
         <f t="shared" si="1"/>
-        <v>1178.6491742612716</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>689.64000000000021</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
         <v>37775</v>
       </c>
@@ -6437,12 +6434,12 @@
       <c r="F103" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G103" s="49">
-        <f t="shared" ref="G85:G141" si="2">5%*D103</f>
-        <v>144.6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="51">
+        <f t="shared" si="1"/>
+        <v>202.44000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
         <v>37776</v>
       </c>
@@ -6458,12 +6455,12 @@
       <c r="F104" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G104" s="49">
-        <f t="shared" si="2"/>
-        <v>342.1</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G104" s="51">
+        <f t="shared" si="1"/>
+        <v>478.94000000000017</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
         <v>37777</v>
       </c>
@@ -6479,12 +6476,12 @@
       <c r="F105" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G105" s="49">
-        <f t="shared" si="2"/>
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="51">
+        <f t="shared" si="1"/>
+        <v>87.78000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>37778</v>
       </c>
@@ -6500,12 +6497,12 @@
       <c r="F106" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G106" s="49">
-        <f t="shared" si="2"/>
-        <v>182.9</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="51">
+        <f t="shared" si="1"/>
+        <v>256.06000000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
         <v>37779</v>
       </c>
@@ -6521,12 +6518,12 @@
       <c r="F107" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G107" s="49">
-        <f t="shared" si="2"/>
-        <v>243.70000000000002</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="51">
+        <f t="shared" si="1"/>
+        <v>341.18000000000012</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
         <v>37780</v>
       </c>
@@ -6542,12 +6539,12 @@
       <c r="F108" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G108" s="49">
-        <f t="shared" si="2"/>
-        <v>134.9</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="51">
+        <f t="shared" si="1"/>
+        <v>188.86000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
         <v>37781</v>
       </c>
@@ -6563,12 +6560,12 @@
       <c r="F109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G109" s="49">
-        <f t="shared" si="2"/>
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="51">
+        <f t="shared" si="1"/>
+        <v>87.78000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
         <v>37782</v>
       </c>
@@ -6584,12 +6581,12 @@
       <c r="F110" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G110" s="49">
-        <f t="shared" si="2"/>
-        <v>392.8</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G110" s="51">
+        <f t="shared" si="1"/>
+        <v>549.92000000000019</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
         <v>37783</v>
       </c>
@@ -6605,12 +6602,12 @@
       <c r="F111" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G111" s="49">
-        <f t="shared" si="2"/>
-        <v>166.25</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="51">
+        <f t="shared" si="1"/>
+        <v>232.75000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
         <v>37784</v>
       </c>
@@ -6626,12 +6623,12 @@
       <c r="F112" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G112" s="49">
-        <f t="shared" si="2"/>
-        <v>392.6</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G112" s="51">
+        <f t="shared" si="1"/>
+        <v>549.64000000000021</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
         <v>37785</v>
       </c>
@@ -6647,12 +6644,12 @@
       <c r="F113" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G113" s="49">
-        <f t="shared" si="2"/>
-        <v>184.70000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="51">
+        <f t="shared" si="1"/>
+        <v>258.5800000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
         <v>37786</v>
       </c>
@@ -6668,12 +6665,12 @@
       <c r="F114" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G114" s="49">
-        <f t="shared" si="2"/>
-        <v>73.900000000000006</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G114" s="51">
+        <f t="shared" si="1"/>
+        <v>103.46000000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
         <v>37787</v>
       </c>
@@ -6689,12 +6686,12 @@
       <c r="F115" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G115" s="49">
-        <f t="shared" si="2"/>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="51">
+        <f t="shared" si="1"/>
+        <v>78.750000000000028</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
         <v>37788</v>
       </c>
@@ -6710,12 +6707,12 @@
       <c r="F116" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G116" s="49">
-        <f t="shared" si="2"/>
-        <v>57.25</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="51">
+        <f t="shared" si="1"/>
+        <v>80.15000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
         <v>37789</v>
       </c>
@@ -6731,12 +6728,12 @@
       <c r="F117" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G117" s="49">
-        <f t="shared" si="2"/>
-        <v>112.7</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="51">
+        <f t="shared" si="1"/>
+        <v>157.78000000000006</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="6">
         <v>37790</v>
       </c>
@@ -6752,12 +6749,12 @@
       <c r="F118" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G118" s="49">
-        <f t="shared" si="2"/>
-        <v>443.70000000000005</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="51">
+        <f t="shared" si="1"/>
+        <v>621.18000000000018</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
         <v>37791</v>
       </c>
@@ -6773,12 +6770,12 @@
       <c r="F119" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G119" s="49">
-        <f t="shared" si="2"/>
-        <v>334.65000000000003</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="51">
+        <f t="shared" si="1"/>
+        <v>468.51000000000016</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
         <v>37792</v>
       </c>
@@ -6794,12 +6791,12 @@
       <c r="F120" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G120" s="49">
-        <f t="shared" si="2"/>
-        <v>112.35000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="51">
+        <f t="shared" si="1"/>
+        <v>157.29000000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
         <v>37793</v>
       </c>
@@ -6815,12 +6812,12 @@
       <c r="F121" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G121" s="49">
-        <f t="shared" si="2"/>
-        <v>475.65000000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="51">
+        <f t="shared" si="1"/>
+        <v>665.9100000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
         <v>37794</v>
       </c>
@@ -6836,9 +6833,9 @@
       <c r="F122" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G122" s="49">
-        <f t="shared" si="2"/>
-        <v>392.6</v>
+      <c r="G122" s="51">
+        <f t="shared" si="1"/>
+        <v>549.64000000000021</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -6857,9 +6854,9 @@
       <c r="F123" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G123" s="49">
-        <f t="shared" ref="G123:G141" si="3">$I$61*D123</f>
-        <v>818.54624952249492</v>
+      <c r="G123" s="51">
+        <f t="shared" si="1"/>
+        <v>478.94000000000017</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -6878,9 +6875,9 @@
       <c r="F124" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G124" s="49">
-        <f t="shared" si="3"/>
-        <v>150.0229460539621</v>
+      <c r="G124" s="51">
+        <f t="shared" si="1"/>
+        <v>87.78000000000003</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -6899,9 +6896,9 @@
       <c r="F125" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G125" s="49">
-        <f t="shared" si="3"/>
-        <v>437.62674375230728</v>
+      <c r="G125" s="51">
+        <f t="shared" si="1"/>
+        <v>256.06000000000006</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -6920,9 +6917,9 @@
       <c r="F126" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G126" s="49">
-        <f t="shared" si="3"/>
-        <v>583.10353992584635</v>
+      <c r="G126" s="51">
+        <f t="shared" si="1"/>
+        <v>341.18000000000012</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -6941,9 +6938,9 @@
       <c r="F127" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G127" s="49">
-        <f t="shared" si="3"/>
-        <v>322.77664151003967</v>
+      <c r="G127" s="51">
+        <f t="shared" si="1"/>
+        <v>188.86000000000004</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -6962,9 +6959,9 @@
       <c r="F128" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G128" s="49">
-        <f t="shared" si="3"/>
-        <v>150.0229460539621</v>
+      <c r="G128" s="51">
+        <f t="shared" si="1"/>
+        <v>87.78000000000003</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -6983,9 +6980,9 @@
       <c r="F129" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G129" s="49">
-        <f t="shared" si="3"/>
-        <v>939.85667001589013</v>
+      <c r="G129" s="51">
+        <f t="shared" si="1"/>
+        <v>549.92000000000019</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -7004,9 +7001,9 @@
       <c r="F130" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G130" s="49">
-        <f t="shared" si="3"/>
-        <v>397.7881145370207</v>
+      <c r="G130" s="51">
+        <f t="shared" si="1"/>
+        <v>232.75000000000006</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
@@ -7025,9 +7022,9 @@
       <c r="F131" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G131" s="49">
-        <f t="shared" si="3"/>
-        <v>939.37812792321404</v>
+      <c r="G131" s="51">
+        <f t="shared" si="1"/>
+        <v>549.64000000000021</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
@@ -7046,9 +7043,9 @@
       <c r="F132" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G132" s="49">
-        <f t="shared" si="3"/>
-        <v>441.93362258639235</v>
+      <c r="G132" s="51">
+        <f t="shared" si="1"/>
+        <v>258.5800000000001</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -7067,9 +7064,9 @@
       <c r="F133" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G133" s="49">
-        <f t="shared" si="3"/>
-        <v>176.82130324382453</v>
+      <c r="G133" s="51">
+        <f t="shared" si="1"/>
+        <v>103.46000000000004</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -7088,9 +7085,9 @@
       <c r="F134" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G134" s="49">
-        <f t="shared" si="3"/>
-        <v>134.58996356515738</v>
+      <c r="G134" s="51">
+        <f t="shared" si="1"/>
+        <v>78.750000000000028</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -7109,9 +7106,9 @@
       <c r="F135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G135" s="49">
-        <f t="shared" si="3"/>
-        <v>136.98267402853796</v>
+      <c r="G135" s="51">
+        <f t="shared" si="1"/>
+        <v>80.15000000000002</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
@@ -7130,9 +7127,9 @@
       <c r="F136" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G136" s="49">
-        <f t="shared" si="3"/>
-        <v>269.6584692229909</v>
+      <c r="G136" s="51">
+        <f t="shared" si="1"/>
+        <v>157.78000000000006</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -7151,9 +7148,9 @@
       <c r="F137" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G137" s="49">
-        <f t="shared" si="3"/>
-        <v>1061.6456326019613</v>
+      <c r="G137" s="51">
+        <f t="shared" si="1"/>
+        <v>621.18000000000018</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
@@ -7172,9 +7169,9 @@
       <c r="F138" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G138" s="49">
-        <f t="shared" si="3"/>
-        <v>800.72055657030967</v>
+      <c r="G138" s="51">
+        <f t="shared" si="1"/>
+        <v>468.51000000000016</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
@@ -7193,9 +7190,9 @@
       <c r="F139" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G139" s="49">
-        <f t="shared" si="3"/>
-        <v>268.82102056080765</v>
+      <c r="G139" s="51">
+        <f t="shared" si="1"/>
+        <v>157.29000000000005</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
@@ -7214,9 +7211,9 @@
       <c r="F140" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G140" s="49">
-        <f t="shared" si="3"/>
-        <v>1138.0927319069708</v>
+      <c r="G140" s="51">
+        <f t="shared" si="1"/>
+        <v>665.9100000000002</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
@@ -7235,21 +7232,13 @@
       <c r="F141" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G141" s="49">
-        <f t="shared" si="3"/>
-        <v>939.37812792321404</v>
+      <c r="G141" s="51">
+        <f t="shared" si="1"/>
+        <v>549.64000000000021</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B19:G141" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Abril"/>
-        <filter val="Julho"/>
-        <filter val="Maio"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B19:G141" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B2:Q6"/>
   </mergeCells>

--- a/Materia_2-PowerBi/IP - EX 50 - Tabela dinamica I (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 50 - Tabela dinamica I (Anexo).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627914D8-2C8F-4A0A-B4FD-B5B0C0638F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63E08C3-34F7-4EB5-B26E-756C57FC0367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="6" r:id="rId4"/>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -661,7 +661,7 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{68AA0FC4-F257-4747-A196-A35E428BCDFE}"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -670,15 +670,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1302,7 +1293,7 @@
         <s v="Julho"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Comissão" numFmtId="0" formula="5%*Vendas" databaseField="0"/>
+    <cacheField name="Comissão" numFmtId="0" formula="7%*Vendas" databaseField="0"/>
     <cacheField name="Dias (Data)" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
         <rangePr groupBy="days" startDate="2003-02-03T00:00:00" endDate="2003-07-23T00:00:00"/>
@@ -2712,7 +2703,7 @@
     <dataField name="TOTAL" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="9">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2721,7 +2712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2730,7 +2721,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2753,7 +2744,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6201CA0C-B877-46B7-B794-C72043DCF319}" name="Tabela dinâmica2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6201CA0C-B877-46B7-B794-C72043DCF319}" name="Tabela dinâmica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I11:L15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="14" showAll="0">
@@ -3352,7 +3343,7 @@
     <dataField name="Soma de Comissão" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="6">
+    <format dxfId="3">
       <pivotArea field="8" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3398,7 +3389,7 @@
       </pivotArea>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleDark2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -4256,7 +4247,14 @@
   <dimension ref="B1:Q141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I12" sqref="I12:I14"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="11" activeCol="8" previousRow="11" previousCol="8" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="8" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4579,7 +4577,7 @@
         <v>195923</v>
       </c>
       <c r="L12" s="46">
-        <v>9796.15</v>
+        <v>13714.61</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -4594,7 +4592,7 @@
         <v>314407</v>
       </c>
       <c r="L13" s="46">
-        <v>15720.35</v>
+        <v>22008.49</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
@@ -4609,7 +4607,7 @@
         <v>84488</v>
       </c>
       <c r="L14" s="46">
-        <v>4224.4000000000005</v>
+        <v>5914.1600000000008</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -4624,7 +4622,7 @@
         <v>594818</v>
       </c>
       <c r="L15" s="46">
-        <v>29740.9</v>
+        <v>41637.26</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
